--- a/trunk/toolbox_data/species/bvolcolumns_user.xlsx
+++ b/trunk/toolbox_data/species/bvolcolumns_user.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>Division</t>
   </si>
@@ -216,7 +216,10 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Trophy will automatically be put on taxon level if size classes are equal. Are different for Unicell etc.</t>
+    <t>Trophic level</t>
+  </si>
+  <si>
+    <t>Trophic level will automatically be put on taxon level if size classes are equal. Are different for Unicell etc.</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -756,10 +759,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
